--- a/Database3.xlsx
+++ b/Database3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cj\Documents\GitHub\Encoder-for-DengVaxia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E21BF-8817-4DBF-8F60-A4B2DA0443A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556C856-2C62-4C93-877A-CB829CDB47F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{EDF52D2A-566C-4CB7-AEB0-88DF0CE8DC70}"/>
+    <workbookView xWindow="945" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{EDF52D2A-566C-4CB7-AEB0-88DF0CE8DC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>IF YES SPECIFY</t>
   </si>
   <si>
-    <t>JEHOVAH</t>
+    <t>CUTE ANIME GIRLS</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CB2BF8-9993-404E-8FD0-40ED530A6516}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
